--- a/GUI + Reviews/202506/North America 500.xlsx
+++ b/GUI + Reviews/202506/North America 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 10.06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202506\Preliminary 11.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287D9794-73C0-470F-923B-E89217A5CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F35A484-E0EC-4EE3-8C3B-57ADD5E027D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{7196BD10-9EE0-418A-A6C6-2B334E0DFCA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6C772E6-B734-43EA-AA00-7678D6D34490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4911,23 +4911,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E43EFA-AC24-4356-9713-85450C3FA824}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:N501" xr:uid="{31E43EFA-AC24-4356-9713-85450C3FA824}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78103E2C-6B6D-4DF8-BB49-18BAEED4205E}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:N501" xr:uid="{78103E2C-6B6D-4DF8-BB49-18BAEED4205E}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{1198E506-B84D-4765-A32B-A96E39D59CBA}" name="Rank" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3DF57682-1985-4C5C-BD68-3E9663C17C51}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{99851247-6895-4422-9208-004E79AE764A}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{F08D3DCB-01D8-4CA2-A59F-ABA87EC78802}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1502E147-611D-4B79-AED0-D1D8C5CC7175}" name="Currency (Local)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8611EF7B-7934-4294-81AA-BB2D5D5C6E9C}" name="Price (EUR) " dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{2891167A-DBA5-49F9-9CE5-206969D035F1}" name="NOSH" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{6B5BD109-717D-4BAD-B7F1-7681F62FC937}" name="Exchange Name (VND)" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{BC0CB654-21AC-433B-BD64-CC97702E9B21}" name="Sec Market Value (EUR)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F1DC1205-008D-421D-B5AE-7B972946F82F}" name="20 days aver. turn EUR" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A2B04393-D52E-432D-B2A5-2AA0571025AE}" name="6 month aver. turnover EUR" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{3E691199-1204-46DC-8CC5-45488C0A401C}" name="3 month average turnover EUR" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{B9A9E666-ECF6-4774-93A0-3CCA1BBB616C}" name="3 months aver. Turnover USD" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{665757B6-10B4-4E56-9ED2-14960F42BDA6}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{01FF4595-E941-42CB-A365-6A4D6F3EB6AD}" name="Rank" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9E5FCA0D-2B0C-4DD0-A27B-CB1A06488F69}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{24928033-67BB-46E6-907E-02DDFD90CEAD}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8B1E4C62-FFC3-41C8-A693-6F4451A7E3A7}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FBBA49D7-E3CF-4789-8910-79317280FD4A}" name="Currency (Local)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{76D2C44A-9963-4459-84D4-0688C598E1AA}" name="Price (EUR) " dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{07089781-9C03-45C5-A06A-51F82FC4B5E1}" name="NOSH" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E05B7BEF-60A5-4723-AEE3-3B13013A9A40}" name="Exchange Name (VND)" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{431570B6-3A57-4AA2-968B-E9795D26D2A3}" name="Sec Market Value (EUR)" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{89693E9D-29F1-48B9-AE4A-86CFE608D980}" name="20 days aver. turn EUR" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{3A07A7A9-7054-47F7-9925-E58311B04ED5}" name="6 month aver. turnover EUR" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{BD494685-6415-422A-B347-EC4EE24A9E58}" name="3 month average turnover EUR" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{7FCEE9C2-1D02-4E15-BC0F-2A1933FE750E}" name="3 months aver. Turnover USD" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{C6E51C63-A578-45DC-AB91-8BEA1643E810}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5249,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDF7E5F-4C2B-4B3C-8714-648D33FBEFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B40592-5546-4FF3-B27A-1DAFC57D5033}">
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
